--- a/data/initdemand.xlsx
+++ b/data/initdemand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikschrader/Documents/Uni/AMO-Solo-Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Documents/GitHub/AMO-Single-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BF3D6-F309-264B-A7D7-EAAA448C52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C35ED-5FBF-1E4D-A9E5-0EB4B988CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{107F2F4A-09E3-E940-BB76-2CA3E91D388C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>t</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>n23</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
   <si>
     <t>t1</t>
@@ -239,7 +236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CADD47-125E-EB4F-8CBD-ECA69F6F3B6F}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,12 +630,12 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>54.768000000000001</v>
@@ -670,11 +667,11 @@
       <c r="K2">
         <v>97.8</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>133.66</v>
@@ -688,8 +685,8 @@
       <c r="Q2">
         <v>50.204000000000001</v>
       </c>
-      <c r="R2" t="s">
-        <v>24</v>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>168.21600000000001</v>
@@ -700,22 +697,22 @@
       <c r="U2" s="1">
         <v>65.2</v>
       </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>52.332000000000001</v>
@@ -747,11 +744,11 @@
       <c r="K3">
         <v>93.45</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
         <v>127.715</v>
@@ -765,8 +762,8 @@
       <c r="Q3">
         <v>47.970999999999997</v>
       </c>
-      <c r="R3" t="s">
-        <v>24</v>
+      <c r="R3">
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>160.73400000000001</v>
@@ -777,22 +774,22 @@
       <c r="U3" s="1">
         <v>62.3</v>
       </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>24</v>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>52.92</v>
@@ -824,11 +821,11 @@
       <c r="K4">
         <v>94.5</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
         <v>129.15</v>
@@ -842,8 +839,8 @@
       <c r="Q4">
         <v>48.51</v>
       </c>
-      <c r="R4" t="s">
-        <v>24</v>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>162.54</v>
@@ -854,22 +851,22 @@
       <c r="U4" s="1">
         <v>63</v>
       </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>24</v>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>48.72</v>
@@ -901,11 +898,11 @@
       <c r="K5">
         <v>87</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
         <v>118.89999999999999</v>
@@ -919,8 +916,8 @@
       <c r="Q5">
         <v>44.66</v>
       </c>
-      <c r="R5" t="s">
-        <v>24</v>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>149.63999999999999</v>
@@ -931,22 +928,22 @@
       <c r="U5" s="1">
         <v>58</v>
       </c>
-      <c r="V5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>24</v>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>46.2</v>
@@ -978,11 +975,11 @@
       <c r="K6">
         <v>82.5</v>
       </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
         <v>112.75000000000001</v>
@@ -996,8 +993,8 @@
       <c r="Q6">
         <v>42.35</v>
       </c>
-      <c r="R6" t="s">
-        <v>24</v>
+      <c r="R6">
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>141.9</v>
@@ -1008,22 +1005,22 @@
       <c r="U6" s="1">
         <v>55</v>
       </c>
-      <c r="V6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>24</v>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>46.2</v>
@@ -1055,11 +1052,11 @@
       <c r="K7">
         <v>82.5</v>
       </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
         <v>112.75000000000001</v>
@@ -1073,8 +1070,8 @@
       <c r="Q7">
         <v>42.35</v>
       </c>
-      <c r="R7" t="s">
-        <v>24</v>
+      <c r="R7">
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>141.9</v>
@@ -1085,22 +1082,22 @@
       <c r="U7" s="1">
         <v>55</v>
       </c>
-      <c r="V7" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>24</v>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>50.4</v>
@@ -1132,11 +1129,11 @@
       <c r="K8">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
         <v>123</v>
@@ -1150,8 +1147,8 @@
       <c r="Q8">
         <v>46.199999999999996</v>
       </c>
-      <c r="R8" t="s">
-        <v>24</v>
+      <c r="R8">
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>154.80000000000001</v>
@@ -1162,22 +1159,22 @@
       <c r="U8" s="1">
         <v>60</v>
       </c>
-      <c r="V8" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>24</v>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>53.76</v>
@@ -1209,11 +1206,11 @@
       <c r="K9">
         <v>96</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
         <v>131.19999999999999</v>
@@ -1227,8 +1224,8 @@
       <c r="Q9">
         <v>49.28</v>
       </c>
-      <c r="R9" t="s">
-        <v>24</v>
+      <c r="R9">
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>165.12</v>
@@ -1239,22 +1236,22 @@
       <c r="U9" s="1">
         <v>64</v>
       </c>
-      <c r="V9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>24</v>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>59.64</v>
@@ -1286,11 +1283,11 @@
       <c r="K10">
         <v>106.5</v>
       </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10">
         <v>145.54999999999998</v>
@@ -1304,8 +1301,8 @@
       <c r="Q10">
         <v>54.669999999999995</v>
       </c>
-      <c r="R10" t="s">
-        <v>24</v>
+      <c r="R10">
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>183.18</v>
@@ -1316,22 +1313,22 @@
       <c r="U10" s="1">
         <v>71</v>
       </c>
-      <c r="V10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>24</v>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>65.52</v>
@@ -1363,11 +1360,11 @@
       <c r="K11">
         <v>117</v>
       </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
         <v>159.9</v>
@@ -1381,8 +1378,8 @@
       <c r="Q11">
         <v>60.06</v>
       </c>
-      <c r="R11" t="s">
-        <v>24</v>
+      <c r="R11">
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>201.24</v>
@@ -1393,22 +1390,22 @@
       <c r="U11" s="1">
         <v>78</v>
       </c>
-      <c r="V11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>24</v>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>68.040000000000006</v>
@@ -1440,11 +1437,11 @@
       <c r="K12">
         <v>121.50000000000001</v>
       </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12">
         <v>166.05</v>
@@ -1458,8 +1455,8 @@
       <c r="Q12">
         <v>62.370000000000005</v>
       </c>
-      <c r="R12" t="s">
-        <v>24</v>
+      <c r="R12">
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>208.98</v>
@@ -1470,22 +1467,22 @@
       <c r="U12" s="1">
         <v>81</v>
       </c>
-      <c r="V12" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>24</v>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>68.88</v>
@@ -1517,11 +1514,11 @@
       <c r="K13">
         <v>122.99999999999999</v>
       </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13">
         <v>168.1</v>
@@ -1535,8 +1532,8 @@
       <c r="Q13">
         <v>63.139999999999993</v>
       </c>
-      <c r="R13" t="s">
-        <v>24</v>
+      <c r="R13">
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>211.56</v>
@@ -1547,22 +1544,22 @@
       <c r="U13" s="1">
         <v>82</v>
       </c>
-      <c r="V13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>24</v>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>71.399999999999991</v>
@@ -1594,11 +1591,11 @@
       <c r="K14">
         <v>127.5</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>24</v>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
         <v>174.25</v>
@@ -1612,8 +1609,8 @@
       <c r="Q14">
         <v>65.45</v>
       </c>
-      <c r="R14" t="s">
-        <v>24</v>
+      <c r="R14">
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>219.3</v>
@@ -1624,22 +1621,22 @@
       <c r="U14" s="1">
         <v>85</v>
       </c>
-      <c r="V14" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>24</v>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>69.72</v>
@@ -1671,11 +1668,11 @@
       <c r="K15">
         <v>124.5</v>
       </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>170.15</v>
@@ -1689,8 +1686,8 @@
       <c r="Q15">
         <v>63.91</v>
       </c>
-      <c r="R15" t="s">
-        <v>24</v>
+      <c r="R15">
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>214.14</v>
@@ -1701,22 +1698,22 @@
       <c r="U15" s="1">
         <v>83</v>
       </c>
-      <c r="V15" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>24</v>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>70.98</v>
@@ -1748,11 +1745,11 @@
       <c r="K16">
         <v>126.75</v>
       </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
         <v>173.22499999999999</v>
@@ -1766,8 +1763,8 @@
       <c r="Q16">
         <v>65.064999999999998</v>
       </c>
-      <c r="R16" t="s">
-        <v>24</v>
+      <c r="R16">
+        <v>0</v>
       </c>
       <c r="S16" s="1">
         <v>218.01</v>
@@ -1778,22 +1775,22 @@
       <c r="U16" s="1">
         <v>84.5</v>
       </c>
-      <c r="V16" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>24</v>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>73.5</v>
@@ -1825,11 +1822,11 @@
       <c r="K17">
         <v>131.25</v>
       </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17">
         <v>179.375</v>
@@ -1843,8 +1840,8 @@
       <c r="Q17">
         <v>67.375</v>
       </c>
-      <c r="R17" t="s">
-        <v>24</v>
+      <c r="R17">
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>225.75</v>
@@ -1855,22 +1852,22 @@
       <c r="U17" s="1">
         <v>87.5</v>
       </c>
-      <c r="V17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>24</v>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>82.32</v>
@@ -1902,11 +1899,11 @@
       <c r="K18">
         <v>147</v>
       </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18">
         <v>200.9</v>
@@ -1920,8 +1917,8 @@
       <c r="Q18">
         <v>75.459999999999994</v>
       </c>
-      <c r="R18" t="s">
-        <v>24</v>
+      <c r="R18">
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>252.84</v>
@@ -1932,22 +1929,22 @@
       <c r="U18" s="1">
         <v>98</v>
       </c>
-      <c r="V18" t="s">
-        <v>24</v>
-      </c>
-      <c r="W18" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>24</v>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>84</v>
@@ -1979,11 +1976,11 @@
       <c r="K19">
         <v>150</v>
       </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
         <v>205</v>
@@ -1997,8 +1994,8 @@
       <c r="Q19">
         <v>77</v>
       </c>
-      <c r="R19" t="s">
-        <v>24</v>
+      <c r="R19">
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>258</v>
@@ -2009,22 +2006,22 @@
       <c r="U19" s="1">
         <v>100</v>
       </c>
-      <c r="V19" t="s">
-        <v>24</v>
-      </c>
-      <c r="W19" t="s">
-        <v>24</v>
-      </c>
-      <c r="X19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>24</v>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>80.64</v>
@@ -2056,11 +2053,11 @@
       <c r="K20">
         <v>144</v>
       </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20">
         <v>196.79999999999998</v>
@@ -2074,8 +2071,8 @@
       <c r="Q20">
         <v>73.92</v>
       </c>
-      <c r="R20" t="s">
-        <v>24</v>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>247.68</v>
@@ -2086,22 +2083,22 @@
       <c r="U20" s="1">
         <v>96</v>
       </c>
-      <c r="V20" t="s">
-        <v>24</v>
-      </c>
-      <c r="W20" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>24</v>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>76.44</v>
@@ -2133,11 +2130,11 @@
       <c r="K21">
         <v>136.5</v>
       </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21">
         <v>186.55</v>
@@ -2151,8 +2148,8 @@
       <c r="Q21">
         <v>70.070000000000007</v>
       </c>
-      <c r="R21" t="s">
-        <v>24</v>
+      <c r="R21">
+        <v>0</v>
       </c>
       <c r="S21" s="1">
         <v>234.78</v>
@@ -2163,22 +2160,22 @@
       <c r="U21" s="1">
         <v>91</v>
       </c>
-      <c r="V21" t="s">
-        <v>24</v>
-      </c>
-      <c r="W21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>24</v>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>71.399999999999991</v>
@@ -2210,11 +2207,11 @@
       <c r="K22">
         <v>127.5</v>
       </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
         <v>174.25</v>
@@ -2228,8 +2225,8 @@
       <c r="Q22">
         <v>65.45</v>
       </c>
-      <c r="R22" t="s">
-        <v>24</v>
+      <c r="R22">
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>219.3</v>
@@ -2240,22 +2237,22 @@
       <c r="U22" s="1">
         <v>85</v>
       </c>
-      <c r="V22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>24</v>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>65.52</v>
@@ -2287,11 +2284,11 @@
       <c r="K23">
         <v>117</v>
       </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
-        <v>24</v>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23">
         <v>159.9</v>
@@ -2305,8 +2302,8 @@
       <c r="Q23">
         <v>60.06</v>
       </c>
-      <c r="R23" t="s">
-        <v>24</v>
+      <c r="R23">
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>201.24</v>
@@ -2317,22 +2314,22 @@
       <c r="U23" s="1">
         <v>78</v>
       </c>
-      <c r="V23" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23" t="s">
-        <v>24</v>
-      </c>
-      <c r="X23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>24</v>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>60.9</v>
@@ -2364,11 +2361,11 @@
       <c r="K24">
         <v>108.75</v>
       </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" t="s">
-        <v>24</v>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
         <v>148.625</v>
@@ -2382,8 +2379,8 @@
       <c r="Q24">
         <v>55.824999999999996</v>
       </c>
-      <c r="R24" t="s">
-        <v>24</v>
+      <c r="R24">
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>187.05</v>
@@ -2394,22 +2391,22 @@
       <c r="U24" s="1">
         <v>72.5</v>
       </c>
-      <c r="V24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W24" t="s">
-        <v>24</v>
-      </c>
-      <c r="X24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>24</v>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>54.6</v>
@@ -2441,11 +2438,11 @@
       <c r="K25">
         <v>97.5</v>
       </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" t="s">
-        <v>24</v>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
         <v>133.25</v>
@@ -2459,8 +2456,8 @@
       <c r="Q25">
         <v>50.050000000000004</v>
       </c>
-      <c r="R25" t="s">
-        <v>24</v>
+      <c r="R25">
+        <v>0</v>
       </c>
       <c r="S25" s="1">
         <v>167.7</v>
@@ -2471,17 +2468,17 @@
       <c r="U25" s="1">
         <v>65</v>
       </c>
-      <c r="V25" t="s">
-        <v>24</v>
-      </c>
-      <c r="W25" t="s">
-        <v>24</v>
-      </c>
-      <c r="X25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>24</v>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/initdemand.xlsx
+++ b/data/initdemand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Documents/GitHub/AMO-Single-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C35ED-5FBF-1E4D-A9E5-0EB4B988CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406A7164-8E10-8E48-8558-A90C5B5C188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{107F2F4A-09E3-E940-BB76-2CA3E91D388C}"/>
+    <workbookView xWindow="-34160" yWindow="2740" windowWidth="33920" windowHeight="16300" xr2:uid="{107F2F4A-09E3-E940-BB76-2CA3E91D388C}"/>
   </bookViews>
   <sheets>
     <sheet name="initdemand" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,7 +552,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,76 +638,76 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>54.768000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>48.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>90.628</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>37.816000000000003</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>35.86</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>69.112000000000009</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>63.244</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>86.064000000000007</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>88.02000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>97.8</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>133.66</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>97.8</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>159.74</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>50.204000000000001</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>168.21600000000001</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>91.932000000000002</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>65.2</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -714,76 +715,76 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>52.332000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>46.725000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>86.596999999999994</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>36.134</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>34.265000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>66.037999999999997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>60.430999999999997</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>82.236000000000004</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>84.105000000000004</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>93.45</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>127.715</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>93.45</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>152.63499999999999</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>47.970999999999997</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
         <v>160.73400000000001</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2">
         <v>87.843000000000004</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="2">
         <v>62.3</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -791,76 +792,76 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>52.92</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>47.25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>87.570000000000007</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>36.54</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>34.65</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>66.78</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>61.11</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>83.16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>85.05</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>94.5</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>129.15</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>94.5</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>154.35</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>48.51</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
         <v>162.54</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>88.83</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>63</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -868,76 +869,76 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>48.72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>43.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>80.61999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>33.64</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>31.9</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>61.48</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>56.26</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>76.559999999999988</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>78.3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>87</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>118.89999999999999</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>87</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>142.1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>44.66</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>149.63999999999999</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>81.78</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="2">
         <v>58</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -945,76 +946,76 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>46.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>41.25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>76.45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>31.9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>30.250000000000004</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>58.300000000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>53.35</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>72.600000000000009</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>74.25</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>82.5</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>112.75000000000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>82.5</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>134.75</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>42.35</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <v>141.9</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>77.55</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>55</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1022,76 +1023,76 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>46.2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>41.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>76.45</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>31.9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>30.250000000000004</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>58.300000000000004</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>53.35</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>72.600000000000009</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>74.25</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>82.5</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>112.75000000000001</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>82.5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>134.75</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>42.35</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>141.9</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>77.55</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>55</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1099,76 +1100,76 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>50.4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>83.399999999999991</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>63.599999999999994</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>58.199999999999996</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>79.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>81</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>90</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>123</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>90</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>147</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>46.199999999999996</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>154.80000000000001</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>84.6</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <v>60</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1176,76 +1177,76 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>53.76</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>48</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>88.960000000000008</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>37.119999999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>67.84</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>62.08</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>84.48</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>86.4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>96</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>131.19999999999999</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>96</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>156.80000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>49.28</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>165.12</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>90.24</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>64</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1253,76 +1254,76 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>59.64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>53.25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>98.69</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>41.18</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>39.049999999999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>75.259999999999991</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>68.86999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>93.72</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>95.85</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>106.5</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>145.54999999999998</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>106.5</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>173.95</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>54.669999999999995</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>183.18</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>100.11</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>71</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1330,76 +1331,76 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>65.52</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>58.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>108.42</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>45.24</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>42.9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>82.68</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>75.66</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>102.96000000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>105.3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>117</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>159.9</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>117</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>191.1</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>60.06</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>201.24</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <v>109.98</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <v>78</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1407,76 +1408,76 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>68.040000000000006</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>60.750000000000007</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>112.59</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>46.98</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>44.550000000000004</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>85.86</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>78.570000000000007</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>106.92</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>109.35000000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>121.50000000000001</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>166.05</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>121.50000000000001</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>198.45000000000002</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>62.370000000000005</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <v>208.98</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>114.21</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>81</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1484,76 +1485,76 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>68.88</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>61.499999999999993</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>113.97999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>47.56</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>45.099999999999994</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>86.92</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>79.539999999999992</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>108.24</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>110.69999999999999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>122.99999999999999</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>168.1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>122.99999999999999</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>200.89999999999998</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>63.139999999999993</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <v>211.56</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="2">
         <v>115.62</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="2">
         <v>82</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1561,76 +1562,76 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>71.399999999999991</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>63.75</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>118.14999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>49.3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>46.75</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>90.1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>82.45</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>112.2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>114.75</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>127.5</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>174.25</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>127.5</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>208.25</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>65.45</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <v>219.3</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="2">
         <v>119.85</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="2">
         <v>85</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1638,76 +1639,76 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>69.72</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>62.25</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>115.36999999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>48.14</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>45.65</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>87.97999999999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>80.509999999999991</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>109.55999999999999</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>112.05</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>124.5</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>170.15</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>124.5</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>203.35</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>63.91</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <v>214.14</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <v>117.03</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>83</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1715,76 +1716,76 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>70.98</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>63.375</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>117.455</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>49.01</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>46.475000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>89.57</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>81.965000000000003</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>111.53999999999999</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>114.075</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>126.75</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>173.22499999999999</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>126.75</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>207.02500000000001</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>65.064999999999998</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>218.01</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <v>119.145</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>84.5</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1792,76 +1793,76 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>73.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>65.625</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>121.625</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>50.75</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>48.125</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>92.75</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>84.875</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>115.5</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>118.125</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>131.25</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>179.375</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>131.25</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>214.375</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>67.375</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <v>225.75</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="2">
         <v>123.375</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="2">
         <v>87.5</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1869,76 +1870,76 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>82.32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>73.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>136.22</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>56.84</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>53.9</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>103.88</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>95.06</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>129.35999999999999</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>132.30000000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>147</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>200.9</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>147</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>240.1</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>75.459999999999994</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>252.84</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="2">
         <v>138.18</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <v>98</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1946,76 +1947,76 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>84</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>75</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>139</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>58</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>55</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>106</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>97</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>132</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>135</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>150</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>205</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>150</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>245</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>77</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>258</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="2">
         <v>141</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="2">
         <v>100</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2023,76 +2024,76 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>80.64</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>72</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>133.44</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>55.68</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>52.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>101.75999999999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>93.11999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>126.72</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>129.6</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>144</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>196.79999999999998</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>144</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>235.2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>73.92</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>247.68</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="2">
         <v>135.36000000000001</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="2">
         <v>96</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2100,76 +2101,76 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>76.44</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>68.25</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>126.49000000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>52.78</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>50.050000000000004</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>96.460000000000008</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>88.27</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>120.12</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>122.85000000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>136.5</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>186.55</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>136.5</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>222.95000000000002</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>70.070000000000007</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <v>234.78</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="2">
         <v>128.31</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>91</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2177,76 +2178,76 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>71.399999999999991</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>63.75</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>118.14999999999999</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>49.3</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>46.75</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>90.1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>82.45</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>112.2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>114.75</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>127.5</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>174.25</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>127.5</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>208.25</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>65.45</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <v>219.3</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="2">
         <v>119.85</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>85</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2254,76 +2255,76 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>65.52</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>58.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>108.42</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>45.24</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>42.9</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>82.68</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>75.66</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>102.96000000000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>105.3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>117</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>159.9</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>117</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>191.1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>60.06</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
         <v>201.24</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="2">
         <v>109.98</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="2">
         <v>78</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2331,76 +2332,76 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>60.9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>54.375</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>100.77499999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>42.05</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>39.875</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>76.849999999999994</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>70.325000000000003</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>95.7</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>97.875</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>108.75</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>148.625</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>108.75</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>177.625</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>55.824999999999996</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
         <v>187.05</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="2">
         <v>102.22499999999999</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>72.5</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2408,76 +2409,76 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>54.6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>48.75</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>90.350000000000009</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>35.75</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>68.900000000000006</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>63.050000000000004</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>85.8</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>87.75</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>97.5</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>133.25</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>97.5</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>159.25</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>50.050000000000004</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
         <v>167.7</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="2">
         <v>91.65</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="2">
         <v>65</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
         <v>0</v>
       </c>
     </row>
